--- a/data/hotels_by_city/Houston/Houston_shard_489.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_489.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55667-d243925-Reviews-Motel_6_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Motel-6-Conroe.h1039724.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531443422781&amp;cancellable=false&amp;regionId=6134431&amp;vip=false&amp;c=7b6139fc-5a4a-48ce-a9ad-531868c01076&amp;mctc=9&amp;exp_dp=49.99&amp;exp_ts=1531443423309&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,498 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r453049947-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55667</t>
+  </si>
+  <si>
+    <t>243925</t>
+  </si>
+  <si>
+    <t>453049947</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Horrific place to stay</t>
+  </si>
+  <si>
+    <t>Inexpensive should not mean rude, and horrible service. Checked in very late last night, and had to wait over a half an hour for someone to show up at the reservation desk. He was wearing what looked to be bed clothes. To add he significantly overcharged me for the room stating that online prices are for a different type of Motel 6. Finally, the straw that broke the camel's back there are no hair dryers available for anyone to use, so I had to go out and buy one.  Would have been better (and cheaper) to stay at a best western or something.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r444480291-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>444480291</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>Typical Motel 6, not great not horrible</t>
+  </si>
+  <si>
+    <t>This was a typical Motel 6 experience. My room was one of the newer updated versions. Things were clean and orderly. There was, however, a rather large gap under the door of my bottom-level room. There was a heavy rainstorm the night we stayed here, and in the morning the floor was soaking wet from rain leaking under the door. This motel is in an awkward location, on the side of I-45, but also stuck sort of in between and behind some car dealerships, which was a tad unnerving as the traffic on the frontage road moves very fast, and it isn't obvious at first where one is supposed to turn to get into the motel. The neighborhood felt a bit questionable, as there were some riff-raff looking people hanging around outside and it wasn't clear if they were actually staying in the motel or just loitering, probably for no good reason. It wasn't a bad motel but it wasn't a great one either.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This was a typical Motel 6 experience. My room was one of the newer updated versions. Things were clean and orderly. There was, however, a rather large gap under the door of my bottom-level room. There was a heavy rainstorm the night we stayed here, and in the morning the floor was soaking wet from rain leaking under the door. This motel is in an awkward location, on the side of I-45, but also stuck sort of in between and behind some car dealerships, which was a tad unnerving as the traffic on the frontage road moves very fast, and it isn't obvious at first where one is supposed to turn to get into the motel. The neighborhood felt a bit questionable, as there were some riff-raff looking people hanging around outside and it wasn't clear if they were actually staying in the motel or just loitering, probably for no good reason. It wasn't a bad motel but it wasn't a great one either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r424525301-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>424525301</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Not bad for a 6</t>
+  </si>
+  <si>
+    <t>We stay in these all over the US,  this is actually not bad at all? The only complaint is have was they do not give out towels for the pool . We was told to use the ones in the room . Rooms are clean , quiet and comfortable.  The front desk staff definitely runs this place there is not a bunch of garbage or drama to deal with and plenty of things close by to do. Would definitely stay again . Some motel 6 need to shut the lights off this is not one of them.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r361316749-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>361316749</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Worst Motel 6 on Earth</t>
+  </si>
+  <si>
+    <t>Beware! They did not clean our room. Lazy maid claimed our service dog was left in the room. Saw a cockroach the size of a mouse. Long term 'guest' above us was making loud dragging noises day and night. Broken beer bottles in parking lot. I had to call Corporate and file a complaint to get clean towels brought to the room. I'd rather sleep in my car than ever stay in this pit again.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r356686375-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>356686375</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Nothing special</t>
+  </si>
+  <si>
+    <t>I walked into the room and the smell of pee nearly knocked me out. The room was clean so not sure why the room smelled.  Was disappointed that you have to pay for the wifi. 2.99 a day.  Most hotel offer it for free. No coffee no doughnut unless you buy it from the vending machine.  Won't be back to this place.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Conroe, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>I walked into the room and the smell of pee nearly knocked me out. The room was clean so not sure why the room smelled.  Was disappointed that you have to pay for the wifi. 2.99 a day.  Most hotel offer it for free. No coffee no doughnut unless you buy it from the vending machine.  Won't be back to this place.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r353354127-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>353354127</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>The worst motel in the world! Disgusting. Afraid to touch anything. It was the only place with room late at night on our trip. Should have slept in the car. The outside looked like a scene from a horror film. No pictures just wanted to get out fast.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Conroe, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>The worst motel in the world! Disgusting. Afraid to touch anything. It was the only place with room late at night on our trip. Should have slept in the car. The outside looked like a scene from a horror film. No pictures just wanted to get out fast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r325181403-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>325181403</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Roach Motel</t>
+  </si>
+  <si>
+    <t>We checked in after a long drive from Lubbock Tx at 2a. We were so tired OMG!! we didn't sleep because after we took showers which was very dirty and leak from the bottom on floor. Then crawled into our beds within 5 mins ROACHS &amp; some kind of weird BUGS were crawling all over us!! Awful stay Never again This was first time to stay at Motel 6 and it will be our last time.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r299375829-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>299375829</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>You can put lipstick on a pig, it's still a pig!!!</t>
+  </si>
+  <si>
+    <t>OMG! Worst stay ever!I walked in and noticed right away that some "upgrades" had been done....so it,seemed! Painted walls, platform beds,hardwood laminate flooring. Sounds great right? Naw, not at all! I visited a friend who was in town; sat on the bed and it was all springs!! There were holes around the vents,cluttered with spider webs, the floors creaked horribly and the toilets were atrocious!The shower handles,smh...would not touch with dead hands!! Even the stairs and walkway outside were frightening! There were dips in the concrete walkway, thought at any minute its gonna give way! THIS PLACE NEEDS TO NOT HAVE SPENT MONEY ON PAINT AND FAKE FLOORS AND INSTEAD, DEMOLISHED IT AND STARTED FROM SCRATCH!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Conroe, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>OMG! Worst stay ever!I walked in and noticed right away that some "upgrades" had been done....so it,seemed! Painted walls, platform beds,hardwood laminate flooring. Sounds great right? Naw, not at all! I visited a friend who was in town; sat on the bed and it was all springs!! There were holes around the vents,cluttered with spider webs, the floors creaked horribly and the toilets were atrocious!The shower handles,smh...would not touch with dead hands!! Even the stairs and walkway outside were frightening! There were dips in the concrete walkway, thought at any minute its gonna give way! THIS PLACE NEEDS TO NOT HAVE SPENT MONEY ON PAINT AND FAKE FLOORS AND INSTEAD, DEMOLISHED IT AND STARTED FROM SCRATCH!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r291234606-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>291234606</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Roach and Bedbug City</t>
+  </si>
+  <si>
+    <t>Horrible experience. Had to move my family out at 12am due to roaches and bedbugs and travel over an hour back home just to have a couple of hours of sleep for surgery the next day. Front desk clerk name Vanessa completely rude for no reason. Instead of giving me my money back they wanted to put me (female) and my family (sick mother who having surgery, and 5 year old niece) in the back  of the building where a lot of men out drinking and standing around. I had to travel all the way back home and come back to Conroe TX for my mom surgery. They only wanted to give me 40% back of what I paid for. I paid for Wi-Fi, never showed up in Wi-Fi list. I had to request a refund for that. I don't normally post reviews because sometimes things can be out of order and its not sometimes the workers fault but this was out of control. The reason why I'm posting a review because its dealing with health. Bed bugs and roaches can do a lot of damage health wise and I don't want nobody to experience this. the pictures are not the best but I wish I could post video footage to show multiple roaches coming out the air-condition vent and from the door and also the bed bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Conroe, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Horrible experience. Had to move my family out at 12am due to roaches and bedbugs and travel over an hour back home just to have a couple of hours of sleep for surgery the next day. Front desk clerk name Vanessa completely rude for no reason. Instead of giving me my money back they wanted to put me (female) and my family (sick mother who having surgery, and 5 year old niece) in the back  of the building where a lot of men out drinking and standing around. I had to travel all the way back home and come back to Conroe TX for my mom surgery. They only wanted to give me 40% back of what I paid for. I paid for Wi-Fi, never showed up in Wi-Fi list. I had to request a refund for that. I don't normally post reviews because sometimes things can be out of order and its not sometimes the workers fault but this was out of control. The reason why I'm posting a review because its dealing with health. Bed bugs and roaches can do a lot of damage health wise and I don't want nobody to experience this. the pictures are not the best but I wish I could post video footage to show multiple roaches coming out the air-condition vent and from the door and also the bed bugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r270819510-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>270819510</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Stained dirty sheets</t>
+  </si>
+  <si>
+    <t>Checked in and out on April 29.After check in I was assigned a handicap room which I requested, moved my luggage into the room and turned on the light and to my surprise on the folded back sheet was two eight inch stains and between them a burn spot. I feel like there must not be any supervision of housekeeping, and notice other cleanliness issues on this site.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Conroe, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Checked in and out on April 29.After check in I was assigned a handicap room which I requested, moved my luggage into the room and turned on the light and to my surprise on the folded back sheet was two eight inch stains and between them a burn spot. I feel like there must not be any supervision of housekeeping, and notice other cleanliness issues on this site.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r270275816-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>270275816</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>This was a Terrible experience!!!!</t>
+  </si>
+  <si>
+    <t>Our first non smoking room reeked of smoke and had a window that didn't lock. Anyone from the outside could just open the window and climb in. The 2nd room had an air conditioner that didn't work and was too hot and humid to sleep in. The 3rd room appeared ok however after we were dressed for bed we pulled back the quilt and found lots of long hair on the sheets. The hotel is very old and run down. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Conroe, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Our first non smoking room reeked of smoke and had a window that didn't lock. Anyone from the outside could just open the window and climb in. The 2nd room had an air conditioner that didn't work and was too hot and humid to sleep in. The 3rd room appeared ok however after we were dressed for bed we pulled back the quilt and found lots of long hair on the sheets. The hotel is very old and run down. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r266313360-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>266313360</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Somewhat clean, smelled funny.</t>
+  </si>
+  <si>
+    <t>We moved across country and unfortunately my Husband had to be at his new job before we could close on our new home. After 4 days of driving and 2 hours in a parking lot trying to find a reasonably priced pet friendly hotel, we ended up here. Specifically because we had our dog with us. The property is not well lit, the room wasn't clean and smelled like mildew. The door looks like it has been kicked in at least once, as does the door to the adjoining room.  The laundry facilities are filthy, and flooded.   To top off our fabulous stay, after we have lugged in our mini fridge and settled in for the week we will be here, we got a phone call today telling us webwpuld have to move tomorrow to the "pet section". Did I mention we booked this place specifically because we had our dog with us. Front desk coukd care less that it was thier mistake, not ours. I will never stay with Motel 6 again.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Conroe, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>We moved across country and unfortunately my Husband had to be at his new job before we could close on our new home. After 4 days of driving and 2 hours in a parking lot trying to find a reasonably priced pet friendly hotel, we ended up here. Specifically because we had our dog with us. The property is not well lit, the room wasn't clean and smelled like mildew. The door looks like it has been kicked in at least once, as does the door to the adjoining room.  The laundry facilities are filthy, and flooded.   To top off our fabulous stay, after we have lugged in our mini fridge and settled in for the week we will be here, we got a phone call today telling us webwpuld have to move tomorrow to the "pet section". Did I mention we booked this place specifically because we had our dog with us. Front desk coukd care less that it was thier mistake, not ours. I will never stay with Motel 6 again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r221877672-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>221877672</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>$51 Room...</t>
+  </si>
+  <si>
+    <t>It's a comfortable room for the price.  However... the "no smoking" room next to us not only housed a smoker but also a whiny barking dog. I repeatedly reported the irritations but, seemingly, not much resolve occurred.  Both bars of soap in the bathroom were unwrapped and used. Hardwood floors and schoolhouse style chairs don't offer much comfort. Beds were ok-comfortable but were dorm room style. No microwave or fridge in the rooms. Microwave available in the lobby.  You get what you pay for...</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r218973331-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>218973331</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>We had decided to drive until we were tired and Conroe is where we ended up. We needed 3 rooms and wanted cheap. At first we were a little apprehensive, but when we opened the door to our rooms it was a very nice surprise. The entire room had been remodeled. Wood looking floors, modern design and very clean. There aren't any tubs, but the shower was larger than most. We never felt unsafe and had a quiet restful night. Definitely a good value.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r202778804-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>202778804</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>We were really tired after driving down from Dallas.  We have used Motel 6 motels in different locations over several years. It was a no brainer for the cost of the room.  We had trouble sleeping as their beds were harder than we are used to.  Finally fell asleep after 11 pm. We were woke up and kept itching.  We thought it was the sheets.  When we got up the next day we noticed several small red colored bugs crawling on the bed.  I looked them up on Google. The pictures showed the exact bugs we saw on the bed.  They were bed bugs.  Im still itching.  Trust me.....u dont want to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were really tired after driving down from Dallas.  We have used Motel 6 motels in different locations over several years. It was a no brainer for the cost of the room.  We had trouble sleeping as their beds were harder than we are used to.  Finally fell asleep after 11 pm. We were woke up and kept itching.  We thought it was the sheets.  When we got up the next day we noticed several small red colored bugs crawling on the bed.  I looked them up on Google. The pictures showed the exact bugs we saw on the bed.  They were bed bugs.  Im still itching.  Trust me.....u dont want to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r185442858-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>185442858</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>We were ROBBED</t>
+  </si>
+  <si>
+    <t>We purchased a room for our family and when entering it was so small we could not figure out where to put our child or ourselves. The heater was up against one of the beds to the point where if you laid in it when it was running, it would burn you, or freeze you depending on what temp you set it on at night. We knew we couldn't comfortably sleep on it. We used the phone to call a friend to let us stay there instead of this horrible hotel, and when inspecting the toilet found a long black hair on the seat. We walked down to pack our things, drove to the front office, and went in to ask for a refund. We were proceeded with a rude hand shoved in our face, and a lady yelling and threatening to call the cops on us. Never in my life has someone been so rude to me at any hotel. All I wanted was a refund from the horrible standings of their hotel, and instead of even trying to make things right we were just refused service like I was some kind of criminal. I was seriously treated like a scum back like I guess these people are used to seeing come in to their hotel. I do not appreciate the way my wife was treated, and I want everyone to know that you stole from my family and...We purchased a room for our family and when entering it was so small we could not figure out where to put our child or ourselves. The heater was up against one of the beds to the point where if you laid in it when it was running, it would burn you, or freeze you depending on what temp you set it on at night. We knew we couldn't comfortably sleep on it. We used the phone to call a friend to let us stay there instead of this horrible hotel, and when inspecting the toilet found a long black hair on the seat. We walked down to pack our things, drove to the front office, and went in to ask for a refund. We were proceeded with a rude hand shoved in our face, and a lady yelling and threatening to call the cops on us. Never in my life has someone been so rude to me at any hotel. All I wanted was a refund from the horrible standings of their hotel, and instead of even trying to make things right we were just refused service like I was some kind of criminal. I was seriously treated like a scum back like I guess these people are used to seeing come in to their hotel. I do not appreciate the way my wife was treated, and I want everyone to know that you stole from my family and everyone else should avoid this shady place. I believe now that this place has some shady people they must really deal with if they will call the cops on someone who is just asking for a refund with his famly standing nearby. I can't imagine how they would treat me if I asked for anything during my stay. What horrible service. So now they took our money and are probably laughing about it thinking we are idiots. Be warned, if you have a bad vibe, listen to it the first time. Don't doubt your fist gut feeling about a place!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We purchased a room for our family and when entering it was so small we could not figure out where to put our child or ourselves. The heater was up against one of the beds to the point where if you laid in it when it was running, it would burn you, or freeze you depending on what temp you set it on at night. We knew we couldn't comfortably sleep on it. We used the phone to call a friend to let us stay there instead of this horrible hotel, and when inspecting the toilet found a long black hair on the seat. We walked down to pack our things, drove to the front office, and went in to ask for a refund. We were proceeded with a rude hand shoved in our face, and a lady yelling and threatening to call the cops on us. Never in my life has someone been so rude to me at any hotel. All I wanted was a refund from the horrible standings of their hotel, and instead of even trying to make things right we were just refused service like I was some kind of criminal. I was seriously treated like a scum back like I guess these people are used to seeing come in to their hotel. I do not appreciate the way my wife was treated, and I want everyone to know that you stole from my family and...We purchased a room for our family and when entering it was so small we could not figure out where to put our child or ourselves. The heater was up against one of the beds to the point where if you laid in it when it was running, it would burn you, or freeze you depending on what temp you set it on at night. We knew we couldn't comfortably sleep on it. We used the phone to call a friend to let us stay there instead of this horrible hotel, and when inspecting the toilet found a long black hair on the seat. We walked down to pack our things, drove to the front office, and went in to ask for a refund. We were proceeded with a rude hand shoved in our face, and a lady yelling and threatening to call the cops on us. Never in my life has someone been so rude to me at any hotel. All I wanted was a refund from the horrible standings of their hotel, and instead of even trying to make things right we were just refused service like I was some kind of criminal. I was seriously treated like a scum back like I guess these people are used to seeing come in to their hotel. I do not appreciate the way my wife was treated, and I want everyone to know that you stole from my family and everyone else should avoid this shady place. I believe now that this place has some shady people they must really deal with if they will call the cops on someone who is just asking for a refund with his famly standing nearby. I can't imagine how they would treat me if I asked for anything during my stay. What horrible service. So now they took our money and are probably laughing about it thinking we are idiots. Be warned, if you have a bad vibe, listen to it the first time. Don't doubt your fist gut feeling about a place!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r175187220-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>175187220</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Don't waste your Money! Don't stay here!</t>
+  </si>
+  <si>
+    <t>This place is a prime example of you get what you pay for. Room and bathroom was grimy! Shower stall had a nozzle that was even with my chest!The worst:  beds were so small, two adults could hardly fit. Beds have no box spring, just a board! Woke up stiff, sore and exhausted.Conclusion, pay more, sleep well!</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r144890341-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>144890341</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>What a really good time we had there.</t>
+  </si>
+  <si>
+    <t>First of all, Christian and Yogi were two of the nicest and most polite young men I've met in a long time. They had a smile on their faces like they were happy to be working there. Then the bed was heavenly soft and relaxing.  I had kind of got use to the fact that all Motel 6 beds were hard as a rock.  What a surprise!!!!!  For sure if I'm back in Conroe, Tx, this is where I will be staying Linda Smith Doddridge,</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r103347254-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>103347254</t>
+  </si>
+  <si>
+    <t>04/08/2011</t>
+  </si>
+  <si>
+    <t>Second time around</t>
+  </si>
+  <si>
+    <t>My Husband and I first stayed here back in November 2010, and had a nice time no problems. The room we stayed in then was non smoking and very clean. It was only for a few days but we liked it here. We are now staying here for a week. Staff are friendly and very much willing to work with you. I found a rouch in our first room and we were moved right away and have not had any problems with them since. They come in everyday and clean and take out the trash. They also have a security graud on duty at night to help the police force out. It makes me feel safe. It was affortable for a week. They also have a pool and a laundry room to use. They also help with things to do so your not stuck in your room all the time. Other then to consturtion that is going on around it, it is a great place for all.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>My Husband and I first stayed here back in November 2010, and had a nice time no problems. The room we stayed in then was non smoking and very clean. It was only for a few days but we liked it here. We are now staying here for a week. Staff are friendly and very much willing to work with you. I found a rouch in our first room and we were moved right away and have not had any problems with them since. They come in everyday and clean and take out the trash. They also have a security graud on duty at night to help the police force out. It makes me feel safe. It was affortable for a week. They also have a pool and a laundry room to use. They also help with things to do so your not stuck in your room all the time. Other then to consturtion that is going on around it, it is a great place for all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r86195864-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>86195864</t>
+  </si>
+  <si>
+    <t>11/06/2010</t>
+  </si>
+  <si>
+    <t>NASTY!!</t>
+  </si>
+  <si>
+    <t>This motel was one of the worst ones I have ever stayed at. Not only was their sign burned out to where we couldn't find where they were but the rooms were horrible. I have to admit the desk staff was nice but everything else was just plain old nasty. When my colleague and I checked in we shared a room which happened to be a connecting room to the one next to us. after about 5 minutes the connecting door started shaking so we called the front desk and they stated that no one was checked into that room. After all that we finally decided to go to bed which was stained all over and also smelled like smoke when we were in a none smoking room. This hotel over all was just nasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>This motel was one of the worst ones I have ever stayed at. Not only was their sign burned out to where we couldn't find where they were but the rooms were horrible. I have to admit the desk staff was nice but everything else was just plain old nasty. When my colleague and I checked in we shared a room which happened to be a connecting room to the one next to us. after about 5 minutes the connecting door started shaking so we called the front desk and they stated that no one was checked into that room. After all that we finally decided to go to bed which was stained all over and also smelled like smoke when we were in a none smoking room. This hotel over all was just nasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r40143843-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>40143843</t>
+  </si>
+  <si>
+    <t>09/08/2009</t>
+  </si>
+  <si>
+    <t>Never been so disgusted</t>
+  </si>
+  <si>
+    <t>This place was apalling. It was dirty, and smelled like urine so bad it made our eyes water. I had my five month old daughter with us. We stayed long enough to make a phone call to the front office to let them know we would be down shortly for a refund, we would not be staying at Motel 6. She informed us that we could not have a refund, but a different room. About this time my husband had to hang up on her because I was screaming about a roach I saw, then another, then another. I wasted no time re gathering the baby and our stuff, went down to the office, demanded a refund, and even called the manager out of bed to do so. Needless to say I was spitting mad. I thought motels like this were only in the movies. Someone needs to look into this. If nothing else there is obviously a serious pest problem. We went nextdoor to Days Inn and everything was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>This place was apalling. It was dirty, and smelled like urine so bad it made our eyes water. I had my five month old daughter with us. We stayed long enough to make a phone call to the front office to let them know we would be down shortly for a refund, we would not be staying at Motel 6. She informed us that we could not have a refund, but a different room. About this time my husband had to hang up on her because I was screaming about a roach I saw, then another, then another. I wasted no time re gathering the baby and our stuff, went down to the office, demanded a refund, and even called the manager out of bed to do so. Needless to say I was spitting mad. I thought motels like this were only in the movies. Someone needs to look into this. If nothing else there is obviously a serious pest problem. We went nextdoor to Days Inn and everything was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r12550941-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>12550941</t>
+  </si>
+  <si>
+    <t>01/12/2008</t>
+  </si>
+  <si>
+    <t>Eh.. Its alright.. especially for the price</t>
+  </si>
+  <si>
+    <t>The exterior of hotel was ok... when I walked in to the room I looked all over.. the room was decent.. I didnt expect too much for only $42 but I was suprised that it was as clean as it was for the price..  It sure beats the days inn *Shudders!*</t>
+  </si>
+  <si>
+    <t>November 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1030,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1062,1461 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_489.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_489.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r589532610-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55667</t>
+  </si>
+  <si>
+    <t>243925</t>
+  </si>
+  <si>
+    <t>589532610</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customer service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer service was good, room was clean but could not sleep well due to too much light at the window and other tenants being to loud. Other that those minor problems it was a comfortable stay. I would still recommend this place to friends. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r459946624-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>459946624</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Bad Decor &amp; Noisy!</t>
+  </si>
+  <si>
+    <t>Apparently, they were going for a neo-modern decor, but it ended up looking like a cheap 50s trailer. Fake wood in a "contemporary" design. No drawers. Bed was only a mattress on a steel frame. So uncomfortable. Hiway and parking lot noises were loud. Advertised free Wi-Fi, but I could only pick up the signal when I was standing outside the office door, even though our room was two rooms away. We asked for an extra blanket and pillows, and were told they didn't have any. About an hour later, the maid did bring a blanket.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r453049947-Motel_6_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
-    <t>55667</t>
-  </si>
-  <si>
-    <t>243925</t>
-  </si>
-  <si>
     <t>453049947</t>
   </si>
   <si>
@@ -219,7 +261,43 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r409011317-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>409011317</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Unbelievable</t>
+  </si>
+  <si>
+    <t>This was without a doubt the worst hotel we have ever stayed in while we were unpacking our things some guy walked up to my daughter in law and if she knew where she could score at he almost scared her to death and people walking all night pass our doors  trying to buy drugs oh no the advertisements were very misleading after all we were there for our son graduation never been so disappointed,</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r368711079-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>368711079</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>very small room</t>
+  </si>
+  <si>
+    <t>Very clean room. Very SMALL room. Asked for a room with king or queen  bed. Received a double. Wifi available if you're willing to PAY for it. What motel does that? Wont stay here again. Second strike against motel 6MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Conroe, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Very clean room. Very SMALL room. Asked for a room with king or queen  bed. Received a double. Wifi available if you're willing to PAY for it. What motel does that? Wont stay here again. Second strike against motel 6More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r361316749-Motel_6_Conroe-Conroe_Texas.html</t>
@@ -240,9 +318,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r356686375-Motel_6_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -294,6 +369,48 @@
     <t>The worst motel in the world! Disgusting. Afraid to touch anything. It was the only place with room late at night on our trip. Should have slept in the car. The outside looked like a scene from a horror film. No pictures just wanted to get out fast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r346008522-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>346008522</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Come into town for a family reunion</t>
+  </si>
+  <si>
+    <t>I had spent a few nights in this motel about seven years ago and it was rough so when we checked in we were very happy to see everything has been redone the rooms are great and even outside was looking fantastic they have done a very nice job here I'm looking forward to coming back.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r327160064-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>327160064</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Awful!  Truly an example of 'you get what you pay for'</t>
+  </si>
+  <si>
+    <t>Motel 6 seems to be hit or miss.  Some are OK, some are terrible.  This one is in the terrible category.  My 2 double bed room was tiny, literally a few inches in between the beds and not enough space for my dog's crate.  My friend also had a room and stayed at the same time I did.  Condom wrappers at the foot of the stairs, and a mattress in one of the parking spaces in the parking lot. The lock on her door was not working properly and she was locked out of her room three different times.  She was also left with NO TOWELS when housekeeping came by.  I have a reservation to stay at this hotel in two weeks, which I will cancel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Motel 6 seems to be hit or miss.  Some are OK, some are terrible.  This one is in the terrible category.  My 2 double bed room was tiny, literally a few inches in between the beds and not enough space for my dog's crate.  My friend also had a room and stayed at the same time I did.  Condom wrappers at the foot of the stairs, and a mattress in one of the parking spaces in the parking lot. The lock on her door was not working properly and she was locked out of her room three different times.  She was also left with NO TOWELS when housekeeping came by.  I have a reservation to stay at this hotel in two weeks, which I will cancel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r325181403-Motel_6_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -309,9 +426,6 @@
     <t>We checked in after a long drive from Lubbock Tx at 2a. We were so tired OMG!! we didn't sleep because after we took showers which was very dirty and leak from the bottom on floor. Then crawled into our beds within 5 mins ROACHS &amp; some kind of weird BUGS were crawling all over us!! Awful stay Never again This was first time to stay at Motel 6 and it will be our last time.</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r299375829-Motel_6_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -330,9 +444,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>6Team, brand expericened team member at Motel 6 Conroe, responded to this reviewResponded August 27, 2015</t>
   </si>
   <si>
@@ -369,6 +480,48 @@
     <t>Horrible experience. Had to move my family out at 12am due to roaches and bedbugs and travel over an hour back home just to have a couple of hours of sleep for surgery the next day. Front desk clerk name Vanessa completely rude for no reason. Instead of giving me my money back they wanted to put me (female) and my family (sick mother who having surgery, and 5 year old niece) in the back  of the building where a lot of men out drinking and standing around. I had to travel all the way back home and come back to Conroe TX for my mom surgery. They only wanted to give me 40% back of what I paid for. I paid for Wi-Fi, never showed up in Wi-Fi list. I had to request a refund for that. I don't normally post reviews because sometimes things can be out of order and its not sometimes the workers fault but this was out of control. The reason why I'm posting a review because its dealing with health. Bed bugs and roaches can do a lot of damage health wise and I don't want nobody to experience this. the pictures are not the best but I wish I could post video footage to show multiple roaches coming out the air-condition vent and from the door and also the bed bugs.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r287940190-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>287940190</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>great stay clean and very nice</t>
+  </si>
+  <si>
+    <t>simple is all i need for a trip. i planned this stay online less than a week ago and got the reservation with no issues on the motel 6 website. front desk was fast with check in and stayed one night. the bed was perfect. no shampoo in the bathroom but soap and plenty of towels were provided. will stay again. loved the location it was close to what i needed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r271874906-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>271874906</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Now I know why Motel 6 leaves a light on...</t>
+  </si>
+  <si>
+    <t>The light may be on for you, but it also serves to keep the roaches away. Four cockroaches over 2 nights might not seem like a lot, but one is too many (a baby roach crawled out of the telephone). The newly renovated room was brightly colored, but the bed had old pillows that were dirty and stained along the edges on the open edge of the pillow case.The bathroom surfaces seemed clean enough but someone might want to tell housekeeping that they should scrub under the rim of the toilet as well. The towel racks were also dusty.If you're going to put an HD television in the room, then make sure that you use an HDMI cable to connect it; otherwise, your guest ends up watching a fuzzy picture on a brand new TV.As for the Wifi, it was a paid service, but over an unsecured network. You really want my to enter credit card information over an unsecured network?The bed was physically comfortable enough, but wondering where the next cockroach would appear did not make for a restful stay. I won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Conroe, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>The light may be on for you, but it also serves to keep the roaches away. Four cockroaches over 2 nights might not seem like a lot, but one is too many (a baby roach crawled out of the telephone). The newly renovated room was brightly colored, but the bed had old pillows that were dirty and stained along the edges on the open edge of the pillow case.The bathroom surfaces seemed clean enough but someone might want to tell housekeeping that they should scrub under the rim of the toilet as well. The towel racks were also dusty.If you're going to put an HD television in the room, then make sure that you use an HDMI cable to connect it; otherwise, your guest ends up watching a fuzzy picture on a brand new TV.As for the Wifi, it was a paid service, but over an unsecured network. You really want my to enter credit card information over an unsecured network?The bed was physically comfortable enough, but wondering where the next cockroach would appear did not make for a restful stay. I won't be back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r270819510-Motel_6_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -411,9 +564,6 @@
     <t>Our first non smoking room reeked of smoke and had a window that didn't lock. Anyone from the outside could just open the window and climb in. The 2nd room had an air conditioner that didn't work and was too hot and humid to sleep in. The 3rd room appeared ok however after we were dressed for bed we pulled back the quilt and found lots of long hair on the sheets. The hotel is very old and run down. MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Motel 6 Conroe, responded to this reviewResponded May 6, 2015</t>
   </si>
   <si>
@@ -447,6 +597,36 @@
     <t>We moved across country and unfortunately my Husband had to be at his new job before we could close on our new home. After 4 days of driving and 2 hours in a parking lot trying to find a reasonably priced pet friendly hotel, we ended up here. Specifically because we had our dog with us. The property is not well lit, the room wasn't clean and smelled like mildew. The door looks like it has been kicked in at least once, as does the door to the adjoining room.  The laundry facilities are filthy, and flooded.   To top off our fabulous stay, after we have lugged in our mini fridge and settled in for the week we will be here, we got a phone call today telling us webwpuld have to move tomorrow to the "pet section". Did I mention we booked this place specifically because we had our dog with us. Front desk coukd care less that it was thier mistake, not ours. I will never stay with Motel 6 again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r257019436-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>257019436</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Terrible place!!</t>
+  </si>
+  <si>
+    <t>First impression was nice clean room..upon using the bathroom there were roaches climbing on the wall and some dead ones scattered. Twice within 30 mins we had someone try opening our door, there was a woman screaming profanities outside our window and in the middle of the night a man tried to lure me to his room!!! Very nasty busy place..u definitely get what u pay for!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r243256970-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>243256970</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Nasty, disgusting job from housekeeping!</t>
+  </si>
+  <si>
+    <t>On my visit here, I was appalled at the supposedly clean room.  Long black hairs in the sink, menstrual blood on the underside of the toilet seat, but worst of all were the semen stains and pubic hairs on the bedspread!  The daytime clerk was great.  Friendly, funny, and helpful in getting me a different room, but still.... that was disgusting!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r221877672-Motel_6_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -501,6 +681,54 @@
     <t>We were really tired after driving down from Dallas.  We have used Motel 6 motels in different locations over several years. It was a no brainer for the cost of the room.  We had trouble sleeping as their beds were harder than we are used to.  Finally fell asleep after 11 pm. We were woke up and kept itching.  We thought it was the sheets.  When we got up the next day we noticed several small red colored bugs crawling on the bed.  I looked them up on Google. The pictures showed the exact bugs we saw on the bed.  They were bed bugs.  Im still itching.  Trust me.....u dont want to stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r195137900-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>195137900</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Horrible night!!! Traveler's Beware!</t>
+  </si>
+  <si>
+    <t>I purchased a room there (last minute decision to stay in town and all the other hotels in the area were booked for that night).  I will never stay there again!  And yes, you get what you pay for.  First of all there is no bathtub (I love to bathe) no refrigerator, microwave, coffee pot, nothing.  On top of all that, while my family and I were out enjoying my grandson's birthday party, my jacket disappeared!  On top of that, when we returned to the room for the night there were all kinds of shady characters hanging out in the parking lot.  Loud music, people hanging outside our windows, it was really scary.  I just prayed for God's protection for me and my children.  I got up the next morning as soon as possible and got out of there!  I did report the theft to the receptionist.  I didn't ever bother to make a big fuss about it because I'm sure it has happened to a lot of guests.  Plus the jacket was less than $20.  We got out safely, no harm to my suv and I wouldn't recommend for anyone to stay there.  I learned a valuable lesson.  Pay more, better environment, safety and a good night's sleep.  DON'T STAY THERE!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Conroe, responded to this reviewResponded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2014</t>
+  </si>
+  <si>
+    <t>I purchased a room there (last minute decision to stay in town and all the other hotels in the area were booked for that night).  I will never stay there again!  And yes, you get what you pay for.  First of all there is no bathtub (I love to bathe) no refrigerator, microwave, coffee pot, nothing.  On top of all that, while my family and I were out enjoying my grandson's birthday party, my jacket disappeared!  On top of that, when we returned to the room for the night there were all kinds of shady characters hanging out in the parking lot.  Loud music, people hanging outside our windows, it was really scary.  I just prayed for God's protection for me and my children.  I got up the next morning as soon as possible and got out of there!  I did report the theft to the receptionist.  I didn't ever bother to make a big fuss about it because I'm sure it has happened to a lot of guests.  Plus the jacket was less than $20.  We got out safely, no harm to my suv and I wouldn't recommend for anyone to stay there.  I learned a valuable lesson.  Pay more, better environment, safety and a good night's sleep.  DON'T STAY THERE!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r191745908-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>191745908</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>NOT BAD</t>
+  </si>
+  <si>
+    <t>First thing first this place IS NOT BAD like some have said 10 to 1 they are mad cuz they didn't get over on the place by getting a free stay iv been to MOTEL 6 CONROE numerous times nice and helpful staff you are going to have your low life people any where u go but iv seen it with my own eyes if the staff thinks or knows you r doing illegal stuff they kick u out no questions asked the way some places need to be and if there is something wrong with the room they will take care of it right away and its got a lot of space for families it is a nice place like I said and friendly staffMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>First thing first this place IS NOT BAD like some have said 10 to 1 they are mad cuz they didn't get over on the place by getting a free stay iv been to MOTEL 6 CONROE numerous times nice and helpful staff you are going to have your low life people any where u go but iv seen it with my own eyes if the staff thinks or knows you r doing illegal stuff they kick u out no questions asked the way some places need to be and if there is something wrong with the room they will take care of it right away and its got a lot of space for families it is a nice place like I said and friendly staffMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r185442858-Motel_6_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -537,9 +765,6 @@
     <t>This place is a prime example of you get what you pay for. Room and bathroom was grimy! Shower stall had a nozzle that was even with my chest!The worst:  beds were so small, two adults could hardly fit. Beds have no box spring, just a board! Woke up stiff, sore and exhausted.Conclusion, pay more, sleep well!</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r144890341-Motel_6_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -558,6 +783,48 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r124489356-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>124489356</t>
+  </si>
+  <si>
+    <t>02/12/2012</t>
+  </si>
+  <si>
+    <t>NASTY!</t>
+  </si>
+  <si>
+    <t>I've stayed in many hotels throughtout my life, including other Motel 6's, but this one certainly takes the NASTY cake!First off, I get here to visit my mother from out of town and stay with her in her hotel. Upon entering the parking lot, I can see a bunch of thugs hangin' out in the parking lot. One of these people was on their cell phone yelling obscenities! I get to the room, and next door to her room are a bunch of shady looking people who made noise ALL NIGHT!!! None of us could get much sleep through the night because of them coming in and out of their room with other people. Probably drug dealers. There are shady looking people hanging out EVERYWHERE, staring at you and asking for ciggarettes. The hotel room was NOT cleaned at all. There were plastic silverware under the bed and hair on the bathroom sink and shower.Our door was broken, and after fighting it many times to open, we changed rooms. To our disgust, there were ANTS in this new room. So we moved, YET AGAIN!NEVER coming here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I've stayed in many hotels throughtout my life, including other Motel 6's, but this one certainly takes the NASTY cake!First off, I get here to visit my mother from out of town and stay with her in her hotel. Upon entering the parking lot, I can see a bunch of thugs hangin' out in the parking lot. One of these people was on their cell phone yelling obscenities! I get to the room, and next door to her room are a bunch of shady looking people who made noise ALL NIGHT!!! None of us could get much sleep through the night because of them coming in and out of their room with other people. Probably drug dealers. There are shady looking people hanging out EVERYWHERE, staring at you and asking for ciggarettes. The hotel room was NOT cleaned at all. There were plastic silverware under the bed and hair on the bathroom sink and shower.Our door was broken, and after fighting it many times to open, we changed rooms. To our disgust, there were ANTS in this new room. So we moved, YET AGAIN!NEVER coming here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r119457703-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>119457703</t>
+  </si>
+  <si>
+    <t>10/18/2011</t>
+  </si>
+  <si>
+    <t>first time never again</t>
+  </si>
+  <si>
+    <t>i rented for a wk and i had my 2 daughters there i made quite a few friends which is a good thing bc i was kicked out bc one of the staff members got jealous and decided to tell her manager etc co workers that i was a prositute and a bad mom the reason was i had to many guy friends but not 1 person stepped foot in my room and i was either at the pool or outside in the grass with my children i am now suing this staff fo slander they have all turned against me bc of a lie the people that stay there are vey kind but the staff are very rude and also if you get ice from the machine be careful bc one of my friends said they found plastic etc in there....MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>i rented for a wk and i had my 2 daughters there i made quite a few friends which is a good thing bc i was kicked out bc one of the staff members got jealous and decided to tell her manager etc co workers that i was a prositute and a bad mom the reason was i had to many guy friends but not 1 person stepped foot in my room and i was either at the pool or outside in the grass with my children i am now suing this staff fo slander they have all turned against me bc of a lie the people that stay there are vey kind but the staff are very rude and also if you get ice from the machine be careful bc one of my friends said they found plastic etc in there....More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r103347254-Motel_6_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -619,6 +886,42 @@
   </si>
   <si>
     <t>This place was apalling. It was dirty, and smelled like urine so bad it made our eyes water. I had my five month old daughter with us. We stayed long enough to make a phone call to the front office to let them know we would be down shortly for a refund, we would not be staying at Motel 6. She informed us that we could not have a refund, but a different room. About this time my husband had to hang up on her because I was screaming about a roach I saw, then another, then another. I wasted no time re gathering the baby and our stuff, went down to the office, demanded a refund, and even called the manager out of bed to do so. Needless to say I was spitting mad. I thought motels like this were only in the movies. Someone needs to look into this. If nothing else there is obviously a serious pest problem. We went nextdoor to Days Inn and everything was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r35970075-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>35970075</t>
+  </si>
+  <si>
+    <t>07/27/2009</t>
+  </si>
+  <si>
+    <t>Great for hobos</t>
+  </si>
+  <si>
+    <t>stayed at this hotel with my spouse on the way to Houston , the staff at the desk was friendly  but  it's the worst hotel we ever stayed during our travel, the room was very stinky and the carpet just enough good for the trash, cigarettes holes in the bed linens people in over rooms seems to be very strange and not  very friendly, we decided to book a room at the days inn just located next to this motel and we had a nice night for $5 more.I think that this motel needs a complete remodeling</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r16360946-Motel_6_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>16360946</t>
+  </si>
+  <si>
+    <t>05/24/2008</t>
+  </si>
+  <si>
+    <t>Nothing fancy, but nice and clean</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights, and had excellent service. The desk clerks were very nice and helpful. The rooms were clean and very decent looking. I have paid more money for a lot worse rooms.  It's a great place to stay if your looking for something affordable and not too fancy.  I will definitely stay again. My only complaint was no coffee pot.  Oh, well, I guess I can take my own.  Thanks to Motel 6.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d243925-r12550941-Motel_6_Conroe-Conroe_Texas.html</t>
@@ -1171,7 +1474,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1180,15 +1483,11 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1232,7 +1531,7 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
@@ -1241,12 +1540,12 @@
         <v>59</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1258,7 +1557,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1274,7 +1573,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1283,39 +1582,43 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1331,7 +1634,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1340,39 +1643,45 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="O5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1409,7 +1718,7 @@
         <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
         <v>80</v>
@@ -1426,14 +1735,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
-        <v>82</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1449,7 +1754,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1458,43 +1763,45 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" t="s">
-        <v>90</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1510,7 +1817,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1519,26 +1826,22 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O8" t="s">
-        <v>59</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -1548,10 +1851,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>92</v>
+      </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1567,7 +1874,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1576,25 +1883,25 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
-      <c r="J9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>103</v>
-      </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1605,14 +1912,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>105</v>
-      </c>
-      <c r="X9" t="s">
-        <v>106</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1628,7 +1931,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1637,49 +1940,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -1695,7 +1992,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1704,49 +2001,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -1762,7 +2053,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1771,43 +2062,45 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>132</v>
-      </c>
-      <c r="X12" t="s">
-        <v>133</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1823,7 +2116,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1832,39 +2125,43 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>129</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>140</v>
-      </c>
-      <c r="X13" t="s">
-        <v>141</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -1880,7 +2177,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1889,25 +2186,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1921,7 +2218,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -1937,7 +2234,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1946,45 +2243,43 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X15" t="s">
+        <v>143</v>
+      </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -2000,7 +2295,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2009,31 +2304,31 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
         <v>1</v>
       </c>
@@ -2044,10 +2339,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
@@ -2063,7 +2362,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2072,41 +2371,37 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2114,7 +2409,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
@@ -2130,7 +2425,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2139,49 +2434,49 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
         <v>2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>165</v>
+      </c>
+      <c r="X18" t="s">
+        <v>166</v>
+      </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
@@ -2197,7 +2492,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2206,49 +2501,49 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>174</v>
+      </c>
+      <c r="X19" t="s">
+        <v>175</v>
+      </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -2264,7 +2559,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2273,49 +2568,43 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
         <v>181</v>
       </c>
-      <c r="J20" t="s">
-        <v>182</v>
-      </c>
-      <c r="K20" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" t="s">
-        <v>184</v>
-      </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
       <c r="Y20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -2331,7 +2620,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2340,49 +2629,39 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
         <v>188</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>189</v>
       </c>
-      <c r="K21" t="s">
-        <v>190</v>
-      </c>
-      <c r="L21" t="s">
-        <v>191</v>
-      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="N21" t="s">
-        <v>192</v>
-      </c>
-      <c r="O21" t="s">
-        <v>67</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -2398,7 +2677,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2407,26 +2686,22 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
         <v>195</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>196</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>197</v>
       </c>
-      <c r="L22" t="s">
-        <v>198</v>
-      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="N22" t="s">
-        <v>199</v>
-      </c>
-      <c r="O22" t="s">
-        <v>59</v>
-      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="n">
         <v>1</v>
       </c>
@@ -2441,7 +2716,7 @@
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2449,7 +2724,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
@@ -2465,7 +2740,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2474,41 +2749,37 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
         <v>202</v>
       </c>
-      <c r="J23" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L23" t="s">
-        <v>205</v>
-      </c>
       <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>206</v>
-      </c>
-      <c r="O23" t="s">
-        <v>104</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2516,7 +2787,1063 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
         <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>227</v>
+      </c>
+      <c r="X27" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J31" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" t="s">
+        <v>252</v>
+      </c>
+      <c r="L31" t="s">
+        <v>253</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>263</v>
+      </c>
+      <c r="J33" t="s">
+        <v>264</v>
+      </c>
+      <c r="K33" t="s">
+        <v>265</v>
+      </c>
+      <c r="L33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>267</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>273</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>288</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" t="s">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s">
+        <v>293</v>
+      </c>
+      <c r="L37" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>301</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6554</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>303</v>
+      </c>
+      <c r="J39" t="s">
+        <v>304</v>
+      </c>
+      <c r="K39" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s">
+        <v>306</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" t="s">
+        <v>129</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
